--- a/momentum_strategy.xlsx
+++ b/momentum_strategy.xlsx
@@ -82,30 +82,30 @@
     <t>XLNX</t>
   </si>
   <si>
+    <t>ALB</t>
+  </si>
+  <si>
     <t>ODFL</t>
   </si>
   <si>
-    <t>ALB</t>
-  </si>
-  <si>
     <t>COTY</t>
   </si>
   <si>
+    <t>SIVB</t>
+  </si>
+  <si>
+    <t>INTU</t>
+  </si>
+  <si>
     <t>CDNS</t>
   </si>
   <si>
-    <t>INTU</t>
-  </si>
-  <si>
-    <t>SIVB</t>
+    <t>EXR</t>
   </si>
   <si>
     <t>LB</t>
   </si>
   <si>
-    <t>EXR</t>
-  </si>
-  <si>
     <t>APA</t>
   </si>
   <si>
@@ -115,39 +115,39 @@
     <t>DVN</t>
   </si>
   <si>
+    <t>PLD</t>
+  </si>
+  <si>
     <t>MSFT</t>
   </si>
   <si>
     <t>AMAT</t>
   </si>
   <si>
-    <t>PLD</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
     <t>FTNT</t>
   </si>
   <si>
+    <t>AZO</t>
+  </si>
+  <si>
     <t>KEYS</t>
   </si>
   <si>
-    <t>AZO</t>
-  </si>
-  <si>
     <t>ACN</t>
   </si>
   <si>
+    <t>AVGO</t>
+  </si>
+  <si>
     <t>AIV</t>
   </si>
   <si>
     <t>RHI</t>
   </si>
   <si>
-    <t>AVGO</t>
-  </si>
-  <si>
     <t>DRE</t>
   </si>
   <si>
@@ -160,24 +160,24 @@
     <t>COST</t>
   </si>
   <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>TSCO</t>
+  </si>
+  <si>
     <t>COG</t>
   </si>
   <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>TSCO</t>
-  </si>
-  <si>
     <t>LOW</t>
   </si>
   <si>
+    <t>NOW</t>
+  </si>
+  <si>
     <t>JNPR</t>
   </si>
   <si>
-    <t>NOW</t>
-  </si>
-  <si>
     <t>CBRE</t>
   </si>
   <si>
@@ -187,19 +187,19 @@
     <t>OKE</t>
   </si>
   <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
     <t>EXC</t>
   </si>
   <si>
-    <t>IR</t>
-  </si>
-  <si>
     <t>JBHT</t>
   </si>
   <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>RF</t>
+    <t>MAA</t>
   </si>
 </sst>
 </file>
@@ -630,37 +630,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>315.74</v>
+        <v>304.5</v>
       </c>
       <c r="C2" s="3">
-        <v>633</v>
+        <v>656</v>
       </c>
       <c r="D2" s="4">
-        <v>1.344763798206918</v>
+        <v>1.372826061702972</v>
       </c>
       <c r="E2" s="4">
-        <v>98.40319361277444</v>
+        <v>0.9840319361277444</v>
       </c>
       <c r="F2" s="4">
-        <v>1.112113363587837</v>
+        <v>1.097851678101041</v>
       </c>
       <c r="G2" s="4">
-        <v>99.8003992015968</v>
+        <v>0.998003992015968</v>
       </c>
       <c r="H2" s="4">
-        <v>0.4815110070226467</v>
+        <v>0.4879065879569074</v>
       </c>
       <c r="I2" s="4">
-        <v>99.40119760479043</v>
+        <v>0.9940119760479043</v>
       </c>
       <c r="J2" s="4">
-        <v>0.4281749287683352</v>
+        <v>0.4221239639049683</v>
       </c>
       <c r="K2" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L2" s="4">
-        <v>99.40119760479041</v>
+        <v>0.9940119760479041</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -668,37 +668,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>19.64</v>
+        <v>20.33</v>
       </c>
       <c r="C3" s="3">
-        <v>10183</v>
+        <v>9837</v>
       </c>
       <c r="D3" s="4">
-        <v>1.338768470594704</v>
+        <v>1.345841306919797</v>
       </c>
       <c r="E3" s="4">
-        <v>98.00399201596807</v>
+        <v>0.9820359281437127</v>
       </c>
       <c r="F3" s="4">
-        <v>0.6668389639661082</v>
+        <v>0.6741260195757267</v>
       </c>
       <c r="G3" s="4">
-        <v>98.60279441117764</v>
+        <v>0.9860279441117764</v>
       </c>
       <c r="H3" s="4">
-        <v>0.4075883134256059</v>
+        <v>0.4193533161999526</v>
       </c>
       <c r="I3" s="4">
-        <v>99.00199600798403</v>
+        <v>0.9920159680638723</v>
       </c>
       <c r="J3" s="4">
-        <v>0.2881441107842632</v>
+        <v>0.2818442450299631</v>
       </c>
       <c r="K3" s="4">
-        <v>99.20159680638723</v>
+        <v>0.9920159680638723</v>
       </c>
       <c r="L3" s="4">
-        <v>98.70259481037924</v>
+        <v>0.9880239520958084</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -706,37 +706,37 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>543.36</v>
+        <v>522.36</v>
       </c>
       <c r="C4" s="3">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="D4" s="4">
-        <v>1.047542788336755</v>
+        <v>1.071495981717083</v>
       </c>
       <c r="E4" s="4">
-        <v>95.40918163672654</v>
+        <v>0.9540918163672655</v>
       </c>
       <c r="F4" s="4">
-        <v>0.626342577702745</v>
+        <v>0.6232345446088557</v>
       </c>
       <c r="G4" s="4">
-        <v>98.00399201596807</v>
+        <v>0.9800399201596807</v>
       </c>
       <c r="H4" s="4">
-        <v>0.4116612944886592</v>
+        <v>0.4100992020750353</v>
       </c>
       <c r="I4" s="4">
-        <v>99.20159680638723</v>
+        <v>0.9900199600798403</v>
       </c>
       <c r="J4" s="4">
-        <v>0.405704019054658</v>
+        <v>0.406837918568664</v>
       </c>
       <c r="K4" s="4">
-        <v>99.8003992015968</v>
+        <v>0.998003992015968</v>
       </c>
       <c r="L4" s="4">
-        <v>98.10379241516966</v>
+        <v>0.9805389221556886</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -744,37 +744,37 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>152.51</v>
+        <v>151.97</v>
       </c>
       <c r="C5" s="3">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="D5" s="4">
-        <v>0.8174383942527571</v>
+        <v>0.8185338698798522</v>
       </c>
       <c r="E5" s="4">
-        <v>91.01796407185628</v>
+        <v>0.9121756487025948</v>
       </c>
       <c r="F5" s="4">
-        <v>0.8764109441593959</v>
+        <v>0.8673328610502692</v>
       </c>
       <c r="G5" s="4">
-        <v>99.60079840319361</v>
+        <v>0.996007984031936</v>
       </c>
       <c r="H5" s="4">
-        <v>0.323359293600473</v>
+        <v>0.32139793480369</v>
       </c>
       <c r="I5" s="4">
-        <v>97.40518962075848</v>
+        <v>0.9740518962075848</v>
       </c>
       <c r="J5" s="4">
-        <v>0.3469809294438788</v>
+        <v>0.3334065108074438</v>
       </c>
       <c r="K5" s="4">
-        <v>99.60079840319361</v>
+        <v>0.996007984031936</v>
       </c>
       <c r="L5" s="4">
-        <v>96.90618762475049</v>
+        <v>0.9695608782435129</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -782,37 +782,37 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>165.63</v>
+        <v>166.53</v>
       </c>
       <c r="C6" s="3">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="4">
-        <v>1.187860176156493</v>
+        <v>1.193429909120353</v>
       </c>
       <c r="E6" s="4">
-        <v>96.60678642714571</v>
+        <v>0.9680638722554891</v>
       </c>
       <c r="F6" s="4">
-        <v>0.3262495024088592</v>
+        <v>0.3288011062428026</v>
       </c>
       <c r="G6" s="4">
-        <v>93.812375249501</v>
+        <v>0.93812375249501</v>
       </c>
       <c r="H6" s="4">
-        <v>0.2647792655764292</v>
+        <v>0.2570008739386507</v>
       </c>
       <c r="I6" s="4">
-        <v>96.60678642714571</v>
+        <v>0.9620758483033931</v>
       </c>
       <c r="J6" s="4">
-        <v>0.2526885879725961</v>
+        <v>0.2484144502032222</v>
       </c>
       <c r="K6" s="4">
-        <v>98.20359281437126</v>
+        <v>0.9800399201596807</v>
       </c>
       <c r="L6" s="4">
-        <v>96.30738522954093</v>
+        <v>0.9620758483033932</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -820,37 +820,37 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>657.0700000000001</v>
+        <v>663.2</v>
       </c>
       <c r="C7" s="3">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D7" s="4">
-        <v>0.8642085990360221</v>
+        <v>0.8621159939345626</v>
       </c>
       <c r="E7" s="4">
-        <v>93.01397205588822</v>
+        <v>0.9321357285429142</v>
       </c>
       <c r="F7" s="4">
-        <v>0.83115516367669</v>
+        <v>0.849261419120816</v>
       </c>
       <c r="G7" s="4">
-        <v>99.40119760479043</v>
+        <v>0.9940119760479043</v>
       </c>
       <c r="H7" s="4">
-        <v>0.2497657426035968</v>
+        <v>0.2469833285371842</v>
       </c>
       <c r="I7" s="4">
-        <v>95.80838323353294</v>
+        <v>0.9580838323353293</v>
       </c>
       <c r="J7" s="4">
-        <v>0.1801716686758924</v>
+        <v>0.1733366488261999</v>
       </c>
       <c r="K7" s="4">
-        <v>95.40918163672654</v>
+        <v>0.9520958083832335</v>
       </c>
       <c r="L7" s="4">
-        <v>95.90818363273453</v>
+        <v>0.9590818363273453</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -858,37 +858,37 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>87.15000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="C8" s="3">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="D8" s="4">
-        <v>1.707505233808087</v>
+        <v>1.704888733433569</v>
       </c>
       <c r="E8" s="4">
-        <v>99.00199600798403</v>
+        <v>0.9900199600798403</v>
       </c>
       <c r="F8" s="4">
-        <v>1.296479579219763</v>
+        <v>1.306827486813341</v>
       </c>
       <c r="G8" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>1.21358515820776</v>
+        <v>1.195848110017749</v>
       </c>
       <c r="I8" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4">
-        <v>0.1120621414403847</v>
+        <v>0.1123416739319477</v>
       </c>
       <c r="K8" s="4">
-        <v>82.03592814371258</v>
+        <v>0.8203592814371258</v>
       </c>
       <c r="L8" s="4">
-        <v>95.25948103792416</v>
+        <v>0.9525948103792415</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -896,37 +896,37 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>119.12</v>
+        <v>116.22</v>
       </c>
       <c r="C9" s="3">
-        <v>1678</v>
+        <v>1720</v>
       </c>
       <c r="D9" s="4">
-        <v>0.7881894918205639</v>
+        <v>0.7774803372544621</v>
       </c>
       <c r="E9" s="4">
-        <v>90.61876247504991</v>
+        <v>0.9041916167664671</v>
       </c>
       <c r="F9" s="4">
-        <v>0.3913064154102799</v>
+        <v>0.3861730305403441</v>
       </c>
       <c r="G9" s="4">
-        <v>96.20758483033931</v>
+        <v>0.9620758483033931</v>
       </c>
       <c r="H9" s="4">
-        <v>0.3784920112883563</v>
+        <v>0.3913528672625448</v>
       </c>
       <c r="I9" s="4">
-        <v>98.40319361277444</v>
+        <v>0.9860279441117764</v>
       </c>
       <c r="J9" s="4">
-        <v>0.17186291765957</v>
+        <v>0.1744825952164623</v>
       </c>
       <c r="K9" s="4">
-        <v>94.61077844311377</v>
+        <v>0.9540918163672655</v>
       </c>
       <c r="L9" s="4">
-        <v>94.96007984031937</v>
+        <v>0.9515968063872255</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -934,37 +934,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>423.68</v>
+        <v>430.07</v>
       </c>
       <c r="C10" s="3">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D10" s="4">
-        <v>0.8654780640831539</v>
+        <v>0.8475837435735147</v>
       </c>
       <c r="E10" s="4">
-        <v>93.21357285429141</v>
+        <v>0.9261477045908184</v>
       </c>
       <c r="F10" s="4">
-        <v>0.3644109794495531</v>
+        <v>0.3638104167974696</v>
       </c>
       <c r="G10" s="4">
-        <v>95.40918163672654</v>
+        <v>0.9560878243512974</v>
       </c>
       <c r="H10" s="4">
-        <v>0.1919796384254336</v>
+        <v>0.1865358989670467</v>
       </c>
       <c r="I10" s="4">
-        <v>93.01397205588822</v>
+        <v>0.9281437125748504</v>
       </c>
       <c r="J10" s="4">
-        <v>0.2471669790764278</v>
+        <v>0.2510450240906132</v>
       </c>
       <c r="K10" s="4">
-        <v>98.00399201596807</v>
+        <v>0.9840319361277444</v>
       </c>
       <c r="L10" s="4">
-        <v>94.91017964071855</v>
+        <v>0.9486027944111777</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -972,37 +972,37 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>209.29</v>
+        <v>217.83</v>
       </c>
       <c r="C11" s="3">
-        <v>955</v>
+        <v>918</v>
       </c>
       <c r="D11" s="4">
-        <v>0.6451176816862193</v>
+        <v>0.624089071519357</v>
       </c>
       <c r="E11" s="4">
-        <v>83.03393213572855</v>
+        <v>0.8203592814371258</v>
       </c>
       <c r="F11" s="4">
-        <v>0.6680663829335569</v>
+        <v>0.6878104868277808</v>
       </c>
       <c r="G11" s="4">
-        <v>98.80239520958084</v>
+        <v>0.9880239520958084</v>
       </c>
       <c r="H11" s="4">
-        <v>0.3541732287141783</v>
+        <v>0.3575675116017177</v>
       </c>
       <c r="I11" s="4">
-        <v>97.80439121756487</v>
+        <v>0.9780439121756487</v>
       </c>
       <c r="J11" s="4">
-        <v>0.2761677342185618</v>
+        <v>0.2775397787251906</v>
       </c>
       <c r="K11" s="4">
-        <v>98.80239520958084</v>
+        <v>0.9900199600798403</v>
       </c>
       <c r="L11" s="4">
-        <v>94.61077844311377</v>
+        <v>0.9441117764471058</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1010,37 +1010,37 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>350.28</v>
+        <v>274.53</v>
       </c>
       <c r="C12" s="3">
-        <v>570</v>
+        <v>728</v>
       </c>
       <c r="D12" s="4">
-        <v>0.7725372046038147</v>
+        <v>1.283808700517858</v>
       </c>
       <c r="E12" s="4">
-        <v>89.02195608782435</v>
+        <v>0.9760479041916167</v>
       </c>
       <c r="F12" s="4">
-        <v>0.287158369904956</v>
+        <v>0.6989475249287</v>
       </c>
       <c r="G12" s="4">
-        <v>91.41716566866268</v>
+        <v>0.9900199600798403</v>
       </c>
       <c r="H12" s="4">
-        <v>0.2753150876678369</v>
+        <v>0.1191417848646485</v>
       </c>
       <c r="I12" s="4">
-        <v>96.8063872255489</v>
+        <v>0.7984031936127746</v>
       </c>
       <c r="J12" s="4">
-        <v>0.2004383512308111</v>
+        <v>0.2426545419422684</v>
       </c>
       <c r="K12" s="4">
-        <v>96.8063872255489</v>
+        <v>0.9760479041916167</v>
       </c>
       <c r="L12" s="4">
-        <v>93.51297405189621</v>
+        <v>0.935129740518962</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1048,37 +1048,37 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>283.63</v>
+        <v>356.65</v>
       </c>
       <c r="C13" s="3">
-        <v>705</v>
+        <v>560</v>
       </c>
       <c r="D13" s="4">
-        <v>1.312667277952198</v>
+        <v>0.7622833669941647</v>
       </c>
       <c r="E13" s="4">
-        <v>97.80439121756487</v>
+        <v>0.8902195608782435</v>
       </c>
       <c r="F13" s="4">
-        <v>0.701035090264625</v>
+        <v>0.2910532219498516</v>
       </c>
       <c r="G13" s="4">
-        <v>99.00199600798403</v>
+        <v>0.9121756487025948</v>
       </c>
       <c r="H13" s="4">
-        <v>0.1173764557188875</v>
+        <v>0.2690982611761532</v>
       </c>
       <c r="I13" s="4">
-        <v>79.04191616766467</v>
+        <v>0.9680638722554891</v>
       </c>
       <c r="J13" s="4">
-        <v>0.2447141887246924</v>
+        <v>0.2040926088555104</v>
       </c>
       <c r="K13" s="4">
-        <v>97.80439121756487</v>
+        <v>0.9680638722554891</v>
       </c>
       <c r="L13" s="4">
-        <v>93.41317365269461</v>
+        <v>0.9346307385229541</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1086,37 +1086,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>10.96</v>
+        <v>11.3</v>
       </c>
       <c r="C14" s="3">
-        <v>18248</v>
+        <v>17699</v>
       </c>
       <c r="D14" s="4">
-        <v>1.450750328913305</v>
+        <v>1.459426653872675</v>
       </c>
       <c r="E14" s="4">
-        <v>98.60279441117764</v>
+        <v>0.9860279441117764</v>
       </c>
       <c r="F14" s="4">
-        <v>0.1701246333437701</v>
+        <v>0.1695715079244266</v>
       </c>
       <c r="G14" s="4">
-        <v>77.8443113772455</v>
+        <v>0.780439121756487</v>
       </c>
       <c r="H14" s="4">
-        <v>0.2313284874312075</v>
+        <v>0.2304511502968176</v>
       </c>
       <c r="I14" s="4">
-        <v>95.00998003992017</v>
+        <v>0.9500998003992016</v>
       </c>
       <c r="J14" s="4">
-        <v>0.3203114111906517</v>
+        <v>0.3241314841583175</v>
       </c>
       <c r="K14" s="4">
-        <v>99.40119760479043</v>
+        <v>0.9940119760479043</v>
       </c>
       <c r="L14" s="4">
-        <v>92.71457085828344</v>
+        <v>0.9276447105788423</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1124,37 +1124,37 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>178.31</v>
+        <v>757.98</v>
       </c>
       <c r="C15" s="3">
-        <v>1121</v>
+        <v>263</v>
       </c>
       <c r="D15" s="4">
-        <v>0.6064186020842399</v>
+        <v>1.228934961529361</v>
       </c>
       <c r="E15" s="4">
-        <v>81.2375249500998</v>
+        <v>0.9720558882235529</v>
       </c>
       <c r="F15" s="4">
-        <v>0.4455214611890567</v>
+        <v>0.292110622731413</v>
       </c>
       <c r="G15" s="4">
-        <v>97.0059880239521</v>
+        <v>0.9141716566866268</v>
       </c>
       <c r="H15" s="4">
-        <v>0.1980398516614077</v>
+        <v>0.2828223522323285</v>
       </c>
       <c r="I15" s="4">
-        <v>93.21357285429141</v>
+        <v>0.9700598802395209</v>
       </c>
       <c r="J15" s="4">
-        <v>0.1873472585854124</v>
+        <v>0.1102640498838568</v>
       </c>
       <c r="K15" s="4">
-        <v>95.80838323353294</v>
+        <v>0.8123752495009979</v>
       </c>
       <c r="L15" s="4">
-        <v>91.81636726546907</v>
+        <v>0.9171656686626747</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1162,37 +1162,37 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>616.63</v>
+        <v>616.59</v>
       </c>
       <c r="C16" s="3">
         <v>324</v>
       </c>
       <c r="D16" s="4">
-        <v>0.807261341889613</v>
+        <v>0.8002483714812397</v>
       </c>
       <c r="E16" s="4">
-        <v>90.81836327345309</v>
+        <v>0.9081836327345308</v>
       </c>
       <c r="F16" s="4">
-        <v>0.5562787437475307</v>
+        <v>0.553605394988988</v>
       </c>
       <c r="G16" s="4">
-        <v>97.60479041916167</v>
+        <v>0.9760479041916167</v>
       </c>
       <c r="H16" s="4">
-        <v>0.1463530688177948</v>
+        <v>0.1472272459019302</v>
       </c>
       <c r="I16" s="4">
-        <v>86.62674650698602</v>
+        <v>0.8682634730538922</v>
       </c>
       <c r="J16" s="4">
-        <v>0.1430887437274058</v>
+        <v>0.1431564521191914</v>
       </c>
       <c r="K16" s="4">
-        <v>91.21756487025948</v>
+        <v>0.9141716566866268</v>
       </c>
       <c r="L16" s="4">
-        <v>91.56686626746506</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1200,37 +1200,37 @@
         <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>773.89</v>
+        <v>180.92</v>
       </c>
       <c r="C17" s="3">
-        <v>258</v>
+        <v>1105</v>
       </c>
       <c r="D17" s="4">
-        <v>1.205511994028145</v>
+        <v>0.5904939340034112</v>
       </c>
       <c r="E17" s="4">
-        <v>97.0059880239521</v>
+        <v>0.7984031936127746</v>
       </c>
       <c r="F17" s="4">
-        <v>0.2992250966916784</v>
+        <v>0.434870327780682</v>
       </c>
       <c r="G17" s="4">
-        <v>92.21556886227545</v>
+        <v>0.9660678642714571</v>
       </c>
       <c r="H17" s="4">
-        <v>0.291243528021042</v>
+        <v>0.1941862934180835</v>
       </c>
       <c r="I17" s="4">
-        <v>97.0059880239521</v>
+        <v>0.9341317365269461</v>
       </c>
       <c r="J17" s="4">
-        <v>0.1066207966608261</v>
+        <v>0.186749417968353</v>
       </c>
       <c r="K17" s="4">
-        <v>79.84031936127745</v>
+        <v>0.9560878243512974</v>
       </c>
       <c r="L17" s="4">
-        <v>91.51696606786427</v>
+        <v>0.9136726546906188</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1238,37 +1238,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>81.73</v>
+        <v>204.21</v>
       </c>
       <c r="C18" s="3">
-        <v>2447</v>
+        <v>979</v>
       </c>
       <c r="D18" s="4">
-        <v>2.325457061245552</v>
+        <v>0.7754561291530042</v>
       </c>
       <c r="E18" s="4">
-        <v>99.60079840319361</v>
+        <v>0.9021956087824351</v>
       </c>
       <c r="F18" s="4">
-        <v>0.829838730050302</v>
+        <v>0.3637997184675261</v>
       </c>
       <c r="G18" s="4">
-        <v>99.20159680638723</v>
+        <v>0.9540918163672655</v>
       </c>
       <c r="H18" s="4">
-        <v>0.2250142221609542</v>
+        <v>0.1473270580071636</v>
       </c>
       <c r="I18" s="4">
-        <v>94.81037924151697</v>
+        <v>0.8702594810379242</v>
       </c>
       <c r="J18" s="4">
-        <v>0.08277703815754059</v>
+        <v>0.1564068354921983</v>
       </c>
       <c r="K18" s="4">
-        <v>71.45708582834331</v>
+        <v>0.9281437125748504</v>
       </c>
       <c r="L18" s="4">
-        <v>91.26746506986028</v>
+        <v>0.9136726546906188</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1276,37 +1276,37 @@
         <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>203.65</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="C19" s="3">
-        <v>982</v>
+        <v>2470</v>
       </c>
       <c r="D19" s="4">
-        <v>0.7781446422019933</v>
+        <v>2.299365266560164</v>
       </c>
       <c r="E19" s="4">
-        <v>89.22155688622755</v>
+        <v>0.996007984031936</v>
       </c>
       <c r="F19" s="4">
-        <v>0.3564729058775743</v>
+        <v>0.825625238527723</v>
       </c>
       <c r="G19" s="4">
-        <v>94.81037924151697</v>
+        <v>0.9920159680638723</v>
       </c>
       <c r="H19" s="4">
-        <v>0.1441891548144795</v>
+        <v>0.2246376867615171</v>
       </c>
       <c r="I19" s="4">
-        <v>86.22754491017965</v>
+        <v>0.9481037924151697</v>
       </c>
       <c r="J19" s="4">
-        <v>0.1533330068546021</v>
+        <v>0.07935238285539355</v>
       </c>
       <c r="K19" s="4">
-        <v>92.61477045908184</v>
+        <v>0.7085828343313374</v>
       </c>
       <c r="L19" s="4">
-        <v>90.7185628742515</v>
+        <v>0.9111776447105788</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1314,37 +1314,37 @@
         <v>30</v>
       </c>
       <c r="B20" s="2">
-        <v>30.6</v>
+        <v>30.27</v>
       </c>
       <c r="C20" s="3">
-        <v>6535</v>
+        <v>6607</v>
       </c>
       <c r="D20" s="4">
-        <v>0.4879234232011682</v>
+        <v>0.5046457453504586</v>
       </c>
       <c r="E20" s="4">
-        <v>72.25548902195609</v>
+        <v>0.7325349301397206</v>
       </c>
       <c r="F20" s="4">
-        <v>0.3252253272298637</v>
+        <v>0.3191035224352293</v>
       </c>
       <c r="G20" s="4">
-        <v>93.61277445109781</v>
+        <v>0.9321357285429142</v>
       </c>
       <c r="H20" s="4">
-        <v>0.5230248291062619</v>
+        <v>0.5182998017967303</v>
       </c>
       <c r="I20" s="4">
-        <v>99.60079840319361</v>
+        <v>0.996007984031936</v>
       </c>
       <c r="J20" s="4">
-        <v>0.1907293106230994</v>
+        <v>0.1890688218462508</v>
       </c>
       <c r="K20" s="4">
-        <v>96.20758483033931</v>
+        <v>0.9580838323353293</v>
       </c>
       <c r="L20" s="4">
-        <v>90.41916167664671</v>
+        <v>0.904690618762475</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1352,37 +1352,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>355.23</v>
+        <v>343.41</v>
       </c>
       <c r="C21" s="3">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="D21" s="4">
-        <v>0.539770362749139</v>
+        <v>0.564731523234102</v>
       </c>
       <c r="E21" s="4">
-        <v>76.64670658682634</v>
+        <v>0.780439121756487</v>
       </c>
       <c r="F21" s="4">
-        <v>0.4732148421648876</v>
+        <v>0.4723969277622682</v>
       </c>
       <c r="G21" s="4">
-        <v>97.40518962075848</v>
+        <v>0.9740518962075848</v>
       </c>
       <c r="H21" s="4">
-        <v>0.1781174909832993</v>
+        <v>0.1759203149893146</v>
       </c>
       <c r="I21" s="4">
-        <v>92.41516966067864</v>
+        <v>0.9241516966067864</v>
       </c>
       <c r="J21" s="4">
-        <v>0.1625583299427868</v>
+        <v>0.1606005412249286</v>
       </c>
       <c r="K21" s="4">
-        <v>93.61277445109781</v>
+        <v>0.936127744510978</v>
       </c>
       <c r="L21" s="4">
-        <v>90.01996007984032</v>
+        <v>0.903692614770459</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1390,37 +1390,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>44.85</v>
+        <v>43.26</v>
       </c>
       <c r="C22" s="3">
-        <v>4459</v>
+        <v>4623</v>
       </c>
       <c r="D22" s="4">
-        <v>2.760948488308582</v>
+        <v>2.799043102275529</v>
       </c>
       <c r="E22" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>0.6593003010830144</v>
+        <v>0.6695236622444335</v>
       </c>
       <c r="G22" s="4">
-        <v>98.40319361277444</v>
+        <v>0.9840319361277444</v>
       </c>
       <c r="H22" s="4">
-        <v>0.5515440360631358</v>
+        <v>0.5475127826094208</v>
       </c>
       <c r="I22" s="4">
-        <v>99.8003992015968</v>
+        <v>0.998003992015968</v>
       </c>
       <c r="J22" s="4">
-        <v>0.06318302552818257</v>
+        <v>0.06372559193276027</v>
       </c>
       <c r="K22" s="4">
-        <v>61.67664670658683</v>
+        <v>0.6207584830339321</v>
       </c>
       <c r="L22" s="4">
-        <v>89.97005988023952</v>
+        <v>0.9006986027944112</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1428,37 +1428,37 @@
         <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>339.162</v>
+        <v>153.58</v>
       </c>
       <c r="C23" s="3">
-        <v>589</v>
+        <v>1302</v>
       </c>
       <c r="D23" s="4">
-        <v>0.6051503367955389</v>
+        <v>0.5284246247730536</v>
       </c>
       <c r="E23" s="4">
-        <v>81.0379241516966</v>
+        <v>0.7524950099800399</v>
       </c>
       <c r="F23" s="4">
-        <v>0.3469867868768781</v>
+        <v>0.2972517958583689</v>
       </c>
       <c r="G23" s="4">
-        <v>94.41117764471058</v>
+        <v>0.9221556886227544</v>
       </c>
       <c r="H23" s="4">
-        <v>0.1586407982567254</v>
+        <v>0.1615301571931448</v>
       </c>
       <c r="I23" s="4">
-        <v>89.62075848303394</v>
+        <v>0.9061876247504991</v>
       </c>
       <c r="J23" s="4">
-        <v>0.1274027490319872</v>
+        <v>0.1634542105985015</v>
       </c>
       <c r="K23" s="4">
-        <v>87.42514970059881</v>
+        <v>0.940119760479042</v>
       </c>
       <c r="L23" s="4">
-        <v>88.12375249500998</v>
+        <v>0.8802395209580839</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1466,37 +1466,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>155.95</v>
+        <v>340.71</v>
       </c>
       <c r="C24" s="3">
-        <v>1282</v>
+        <v>587</v>
       </c>
       <c r="D24" s="4">
-        <v>1.216197382060728</v>
+        <v>0.5968105566619322</v>
       </c>
       <c r="E24" s="4">
-        <v>97.2055888223553</v>
+        <v>0.8023952095808383</v>
       </c>
       <c r="F24" s="4">
-        <v>0.2192685262877485</v>
+        <v>0.3453605603697038</v>
       </c>
       <c r="G24" s="4">
-        <v>85.62874251497006</v>
+        <v>0.9441117764471058</v>
       </c>
       <c r="H24" s="4">
-        <v>0.09324163291344859</v>
+        <v>0.1604046043500268</v>
       </c>
       <c r="I24" s="4">
-        <v>72.45508982035928</v>
+        <v>0.8982035928143712</v>
       </c>
       <c r="J24" s="4">
-        <v>0.1982990531855527</v>
+        <v>0.1264098118446567</v>
       </c>
       <c r="K24" s="4">
-        <v>96.60678642714571</v>
+        <v>0.874251497005988</v>
       </c>
       <c r="L24" s="4">
-        <v>87.97405189620758</v>
+        <v>0.8797405189620758</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1504,37 +1504,37 @@
         <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>150.05</v>
+        <v>154.4</v>
       </c>
       <c r="C25" s="3">
-        <v>1332</v>
+        <v>1295</v>
       </c>
       <c r="D25" s="4">
-        <v>0.5260752921900517</v>
+        <v>1.209400556122574</v>
       </c>
       <c r="E25" s="4">
-        <v>74.25149700598803</v>
+        <v>0.9700598802395209</v>
       </c>
       <c r="F25" s="4">
-        <v>0.2984061677497143</v>
+        <v>0.2126209632914583</v>
       </c>
       <c r="G25" s="4">
-        <v>92.01596806387225</v>
+        <v>0.844311377245509</v>
       </c>
       <c r="H25" s="4">
-        <v>0.1577757114304988</v>
+        <v>0.09392038189233495</v>
       </c>
       <c r="I25" s="4">
-        <v>89.42115768463074</v>
+        <v>0.7285429141716567</v>
       </c>
       <c r="J25" s="4">
-        <v>0.1643932501233765</v>
+        <v>0.1969396001689586</v>
       </c>
       <c r="K25" s="4">
-        <v>94.0119760479042</v>
+        <v>0.9660678642714571</v>
       </c>
       <c r="L25" s="4">
-        <v>87.42514970059881</v>
+        <v>0.8772455089820359</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1542,37 +1542,37 @@
         <v>36</v>
       </c>
       <c r="B26" s="2">
-        <v>345.81</v>
+        <v>336.03</v>
       </c>
       <c r="C26" s="3">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="D26" s="4">
-        <v>1.119259196953194</v>
+        <v>1.118469414482668</v>
       </c>
       <c r="E26" s="4">
-        <v>96.00798403193613</v>
+        <v>0.9600798403193613</v>
       </c>
       <c r="F26" s="4">
-        <v>0.4270599341404626</v>
+        <v>0.4379679982914118</v>
       </c>
       <c r="G26" s="4">
-        <v>96.60678642714571</v>
+        <v>0.9680638722554891</v>
       </c>
       <c r="H26" s="4">
-        <v>0.1317602122497564</v>
+        <v>0.1352853664943711</v>
       </c>
       <c r="I26" s="4">
-        <v>83.43313373253493</v>
+        <v>0.8403193612774451</v>
       </c>
       <c r="J26" s="4">
-        <v>0.08696702296782007</v>
+        <v>0.08664070542499462</v>
       </c>
       <c r="K26" s="4">
-        <v>72.25548902195609</v>
+        <v>0.7285429141716567</v>
       </c>
       <c r="L26" s="4">
-        <v>87.07584830339322</v>
+        <v>0.874251497005988</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1580,37 +1580,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>348.55</v>
+        <v>351.52</v>
       </c>
       <c r="C27" s="3">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D27" s="4">
-        <v>2.047801253748633</v>
+        <v>2.009250748492465</v>
       </c>
       <c r="E27" s="4">
-        <v>99.20159680638723</v>
+        <v>0.9920159680638723</v>
       </c>
       <c r="F27" s="4">
-        <v>0.6513879315389087</v>
+        <v>0.6331211047013182</v>
       </c>
       <c r="G27" s="4">
-        <v>98.20359281437126</v>
+        <v>0.9820359281437127</v>
       </c>
       <c r="H27" s="4">
-        <v>0.1132803119735901</v>
+        <v>0.1137816101050712</v>
       </c>
       <c r="I27" s="4">
-        <v>77.64471057884232</v>
+        <v>0.778443113772455</v>
       </c>
       <c r="J27" s="4">
-        <v>0.08790911373050261</v>
+        <v>0.08619511513622176</v>
       </c>
       <c r="K27" s="4">
-        <v>72.85429141716567</v>
+        <v>0.722554890219561</v>
       </c>
       <c r="L27" s="4">
-        <v>86.97604790419162</v>
+        <v>0.8687624750499002</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1618,37 +1618,37 @@
         <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>191.53</v>
+        <v>1949.52</v>
       </c>
       <c r="C28" s="3">
-        <v>1044</v>
+        <v>102</v>
       </c>
       <c r="D28" s="4">
-        <v>0.645854</v>
+        <v>0.617543325382313</v>
       </c>
       <c r="E28" s="4">
-        <v>83.23353293413173</v>
+        <v>0.8143712574850299</v>
       </c>
       <c r="F28" s="4">
-        <v>0.3164755885843821</v>
+        <v>0.243105000715321</v>
       </c>
       <c r="G28" s="4">
-        <v>93.01397205588822</v>
+        <v>0.8762475049900199</v>
       </c>
       <c r="H28" s="4">
-        <v>0.1130358963433031</v>
+        <v>0.1575373272255717</v>
       </c>
       <c r="I28" s="4">
-        <v>77.44510978043913</v>
+        <v>0.8942115768463075</v>
       </c>
       <c r="J28" s="4">
-        <v>0.1397425947621075</v>
+        <v>0.1235824466314574</v>
       </c>
       <c r="K28" s="4">
-        <v>90.41916167664671</v>
+        <v>0.8622754491017964</v>
       </c>
       <c r="L28" s="4">
-        <v>86.02794411177645</v>
+        <v>0.8617764471057885</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1656,37 +1656,37 @@
         <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>1956.84</v>
+        <v>188.38</v>
       </c>
       <c r="C29" s="3">
-        <v>102</v>
+        <v>1061</v>
       </c>
       <c r="D29" s="4">
-        <v>0.6220816060265369</v>
+        <v>0.653663</v>
       </c>
       <c r="E29" s="4">
-        <v>81.83632734530939</v>
+        <v>0.8363273453093812</v>
       </c>
       <c r="F29" s="4">
-        <v>0.238433187993673</v>
+        <v>0.3232406150543778</v>
       </c>
       <c r="G29" s="4">
-        <v>86.62674650698602</v>
+        <v>0.936127744510978</v>
       </c>
       <c r="H29" s="4">
-        <v>0.1542751968776572</v>
+        <v>0.1099231127887621</v>
       </c>
       <c r="I29" s="4">
-        <v>89.02195608782435</v>
+        <v>0.7684630738522954</v>
       </c>
       <c r="J29" s="4">
-        <v>0.119410221047927</v>
+        <v>0.1364660829087202</v>
       </c>
       <c r="K29" s="4">
-        <v>85.02994011976048</v>
+        <v>0.8982035928143712</v>
       </c>
       <c r="L29" s="4">
-        <v>85.62874251497006</v>
+        <v>0.8597804391217565</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1694,37 +1694,37 @@
         <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>371.34</v>
+        <v>383.85</v>
       </c>
       <c r="C30" s="3">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="D30" s="4">
-        <v>0.5666888053172551</v>
+        <v>0.5740007207682908</v>
       </c>
       <c r="E30" s="4">
-        <v>77.8443113772455</v>
+        <v>0.7864271457085829</v>
       </c>
       <c r="F30" s="4">
-        <v>0.271457704567338</v>
+        <v>0.2734070985621757</v>
       </c>
       <c r="G30" s="4">
-        <v>90.21956087824351</v>
+        <v>0.9021956087824351</v>
       </c>
       <c r="H30" s="4">
-        <v>0.1442603687039848</v>
+        <v>0.1434501019547661</v>
       </c>
       <c r="I30" s="4">
-        <v>86.42714570858283</v>
+        <v>0.8602794411177644</v>
       </c>
       <c r="J30" s="4">
-        <v>0.1289465234219995</v>
+        <v>0.1286982093029735</v>
       </c>
       <c r="K30" s="4">
-        <v>87.82435129740519</v>
+        <v>0.8782435129740519</v>
       </c>
       <c r="L30" s="4">
-        <v>85.57884231536926</v>
+        <v>0.8567864271457086</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1732,37 +1732,37 @@
         <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>8.359999999999999</v>
+        <v>576.8</v>
       </c>
       <c r="C31" s="3">
-        <v>23923</v>
+        <v>346</v>
       </c>
       <c r="D31" s="4">
-        <v>0.9938580492017254</v>
+        <v>0.571852560326794</v>
       </c>
       <c r="E31" s="4">
-        <v>95.00998003992017</v>
+        <v>0.784431137724551</v>
       </c>
       <c r="F31" s="4">
-        <v>0.1400232543795874</v>
+        <v>0.2804216312732816</v>
       </c>
       <c r="G31" s="4">
-        <v>71.25748502994011</v>
+        <v>0.9101796407185628</v>
       </c>
       <c r="H31" s="4">
-        <v>0.2013819542431357</v>
+        <v>0.1534129483510847</v>
       </c>
       <c r="I31" s="4">
-        <v>93.61277445109781</v>
+        <v>0.8902195608782435</v>
       </c>
       <c r="J31" s="4">
-        <v>0.1072203398458678</v>
+        <v>0.1158093227409513</v>
       </c>
       <c r="K31" s="4">
-        <v>80.23952095808383</v>
+        <v>0.8383233532934132</v>
       </c>
       <c r="L31" s="4">
-        <v>85.02994011976048</v>
+        <v>0.8557884231536926</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1770,37 +1770,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="2">
-        <v>122.14</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C32" s="3">
-        <v>1637</v>
+        <v>23923</v>
       </c>
       <c r="D32" s="4">
-        <v>0.8622752086964115</v>
+        <v>1.0192169719267</v>
       </c>
       <c r="E32" s="4">
-        <v>92.81437125748504</v>
+        <v>0.9500998003992016</v>
       </c>
       <c r="F32" s="4">
-        <v>0.2974346772083516</v>
+        <v>0.1449657116689667</v>
       </c>
       <c r="G32" s="4">
-        <v>91.81636726546907</v>
+        <v>0.720558882235529</v>
       </c>
       <c r="H32" s="4">
-        <v>0.1645952673344165</v>
+        <v>0.1972657570652683</v>
       </c>
       <c r="I32" s="4">
-        <v>90.81836327345309</v>
+        <v>0.936127744510978</v>
       </c>
       <c r="J32" s="4">
-        <v>0.0678652701478286</v>
+        <v>0.1068861471818849</v>
       </c>
       <c r="K32" s="4">
-        <v>64.47105788423154</v>
+        <v>0.8063872255489022</v>
       </c>
       <c r="L32" s="4">
-        <v>84.98003992015968</v>
+        <v>0.8532934131736527</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1808,37 +1808,37 @@
         <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>570.33</v>
+        <v>119.09</v>
       </c>
       <c r="C33" s="3">
-        <v>350</v>
+        <v>1679</v>
       </c>
       <c r="D33" s="4">
-        <v>0.581514071966723</v>
+        <v>0.8824056362529478</v>
       </c>
       <c r="E33" s="4">
-        <v>78.44311377245509</v>
+        <v>0.936127744510978</v>
       </c>
       <c r="F33" s="4">
-        <v>0.2787741666590014</v>
+        <v>0.2956281818618002</v>
       </c>
       <c r="G33" s="4">
-        <v>90.61876247504991</v>
+        <v>0.9181636726546907</v>
       </c>
       <c r="H33" s="4">
-        <v>0.1465571403972372</v>
+        <v>0.1627456749984905</v>
       </c>
       <c r="I33" s="4">
-        <v>87.02594810379242</v>
+        <v>0.9101796407185628</v>
       </c>
       <c r="J33" s="4">
-        <v>0.1154786346125045</v>
+        <v>0.0660690269154289</v>
       </c>
       <c r="K33" s="4">
-        <v>83.43313373253493</v>
+        <v>0.6347305389221557</v>
       </c>
       <c r="L33" s="4">
-        <v>84.88023952095809</v>
+        <v>0.8498003992015968</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1846,37 +1846,37 @@
         <v>44</v>
       </c>
       <c r="B34" s="2">
-        <v>59.39</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3">
-        <v>3367</v>
+        <v>3448</v>
       </c>
       <c r="D34" s="4">
-        <v>0.4986409057424926</v>
+        <v>0.4796506719703223</v>
       </c>
       <c r="E34" s="4">
-        <v>72.65469061876247</v>
+        <v>0.7085828343313374</v>
       </c>
       <c r="F34" s="4">
-        <v>0.2637820448403613</v>
+        <v>0.2622263382629146</v>
       </c>
       <c r="G34" s="4">
-        <v>89.62075848303394</v>
+        <v>0.9001996007984032</v>
       </c>
       <c r="H34" s="4">
-        <v>0.1485017398958611</v>
+        <v>0.1501910621006105</v>
       </c>
       <c r="I34" s="4">
-        <v>87.42514970059881</v>
+        <v>0.8822355289421158</v>
       </c>
       <c r="J34" s="4">
-        <v>0.1369997960031153</v>
+        <v>0.1377649781819512</v>
       </c>
       <c r="K34" s="4">
-        <v>89.82035928143712</v>
+        <v>0.9041916167664671</v>
       </c>
       <c r="L34" s="4">
-        <v>84.88023952095809</v>
+        <v>0.8488023952095809</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1884,37 +1884,37 @@
         <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>156.73</v>
+        <v>152.16</v>
       </c>
       <c r="C35" s="3">
-        <v>1276</v>
+        <v>1314</v>
       </c>
       <c r="D35" s="4">
-        <v>0.6112165882496917</v>
+        <v>0.6348187328360544</v>
       </c>
       <c r="E35" s="4">
-        <v>81.43712574850299</v>
+        <v>0.8243512974051896</v>
       </c>
       <c r="F35" s="4">
-        <v>0.1972750550058901</v>
+        <v>0.1941655606860152</v>
       </c>
       <c r="G35" s="4">
-        <v>81.2375249500998</v>
+        <v>0.8083832335329342</v>
       </c>
       <c r="H35" s="4">
-        <v>0.123337954081775</v>
+        <v>0.1287798555286313</v>
       </c>
       <c r="I35" s="4">
-        <v>81.2375249500998</v>
+        <v>0.8203592814371258</v>
       </c>
       <c r="J35" s="4">
-        <v>0.1652598009421548</v>
+        <v>0.165291524114201</v>
       </c>
       <c r="K35" s="4">
-        <v>94.21157684630738</v>
+        <v>0.9421157684630738</v>
       </c>
       <c r="L35" s="4">
-        <v>84.53093812375249</v>
+        <v>0.8488023952095809</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1922,37 +1922,37 @@
         <v>46</v>
       </c>
       <c r="B36" s="2">
-        <v>17</v>
+        <v>17.43</v>
       </c>
       <c r="C36" s="3">
-        <v>11764</v>
+        <v>11474</v>
       </c>
       <c r="D36" s="4">
-        <v>2.337793935008464</v>
+        <v>2.396865365449028</v>
       </c>
       <c r="E36" s="4">
-        <v>99.8003992015968</v>
+        <v>0.998003992015968</v>
       </c>
       <c r="F36" s="4">
-        <v>0.4372001209419007</v>
+        <v>0.4519132325517896</v>
       </c>
       <c r="G36" s="4">
-        <v>96.8063872255489</v>
+        <v>0.9700598802395209</v>
       </c>
       <c r="H36" s="4">
-        <v>0.357256767941935</v>
+        <v>0.365249632399013</v>
       </c>
       <c r="I36" s="4">
-        <v>98.00399201596807</v>
+        <v>0.9820359281437127</v>
       </c>
       <c r="J36" s="4">
-        <v>0.03405025939488722</v>
+        <v>0.03327526704939925</v>
       </c>
       <c r="K36" s="4">
-        <v>42.91417165668663</v>
+        <v>0.4191616766467066</v>
       </c>
       <c r="L36" s="4">
-        <v>84.38123752495009</v>
+        <v>0.8423153692614771</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1960,37 +1960,37 @@
         <v>47</v>
       </c>
       <c r="B37" s="2">
-        <v>512.74</v>
+        <v>526.6799999999999</v>
       </c>
       <c r="C37" s="3">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D37" s="4">
-        <v>0.4331297091670573</v>
+        <v>0.4286454909806507</v>
       </c>
       <c r="E37" s="4">
-        <v>65.26946107784431</v>
+        <v>0.6506986027944112</v>
       </c>
       <c r="F37" s="4">
-        <v>0.3388663742245923</v>
+        <v>0.3312770200505109</v>
       </c>
       <c r="G37" s="4">
-        <v>94.21157684630738</v>
+        <v>0.940119760479042</v>
       </c>
       <c r="H37" s="4">
-        <v>0.1497399745205645</v>
+        <v>0.1490566099027051</v>
       </c>
       <c r="I37" s="4">
-        <v>88.02395209580838</v>
+        <v>0.8762475049900199</v>
       </c>
       <c r="J37" s="4">
-        <v>0.1237629534069113</v>
+        <v>0.1248066508965613</v>
       </c>
       <c r="K37" s="4">
-        <v>86.02794411177645</v>
+        <v>0.8642714570858283</v>
       </c>
       <c r="L37" s="4">
-        <v>83.38323353293413</v>
+        <v>0.8328343313373253</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1998,37 +1998,37 @@
         <v>48</v>
       </c>
       <c r="B38" s="2">
-        <v>22.91</v>
+        <v>306.62</v>
       </c>
       <c r="C38" s="3">
-        <v>8729</v>
+        <v>652</v>
       </c>
       <c r="D38" s="4">
-        <v>0.3484895607930911</v>
+        <v>0.7225869699160442</v>
       </c>
       <c r="E38" s="4">
-        <v>53.0938123752495</v>
+        <v>0.874251497005988</v>
       </c>
       <c r="F38" s="4">
-        <v>0.1891071146738909</v>
+        <v>0.167687436138792</v>
       </c>
       <c r="G38" s="4">
-        <v>80.63872255489022</v>
+        <v>0.7684630738522954</v>
       </c>
       <c r="H38" s="4">
-        <v>0.2639921443239512</v>
+        <v>0.1444144671298639</v>
       </c>
       <c r="I38" s="4">
-        <v>96.40718562874251</v>
+        <v>0.8642714570858283</v>
       </c>
       <c r="J38" s="4">
-        <v>0.2594998936247486</v>
+        <v>0.0988202725300362</v>
       </c>
       <c r="K38" s="4">
-        <v>98.40319361277444</v>
+        <v>0.7724550898203593</v>
       </c>
       <c r="L38" s="4">
-        <v>82.13572854291417</v>
+        <v>0.8198602794411177</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2036,37 +2036,37 @@
         <v>49</v>
       </c>
       <c r="B39" s="2">
-        <v>306.31</v>
+        <v>220.86</v>
       </c>
       <c r="C39" s="3">
-        <v>652</v>
+        <v>905</v>
       </c>
       <c r="D39" s="4">
-        <v>0.7176817659504753</v>
+        <v>0.7195523365318464</v>
       </c>
       <c r="E39" s="4">
-        <v>87.22554890219561</v>
+        <v>0.8722554890219562</v>
       </c>
       <c r="F39" s="4">
-        <v>0.166075728266548</v>
+        <v>0.1220768656732283</v>
       </c>
       <c r="G39" s="4">
-        <v>75.84830339321357</v>
+        <v>0.6766467065868264</v>
       </c>
       <c r="H39" s="4">
-        <v>0.142219518065072</v>
+        <v>0.1474879925647044</v>
       </c>
       <c r="I39" s="4">
-        <v>85.82834331337325</v>
+        <v>0.8722554890219562</v>
       </c>
       <c r="J39" s="4">
-        <v>0.09754158669517494</v>
+        <v>0.1199146460578104</v>
       </c>
       <c r="K39" s="4">
-        <v>76.84630738522954</v>
+        <v>0.8483033932135728</v>
       </c>
       <c r="L39" s="4">
-        <v>81.43712574850299</v>
+        <v>0.8173652694610779</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2074,37 +2074,37 @@
         <v>50</v>
       </c>
       <c r="B40" s="2">
-        <v>223.19</v>
+        <v>22.44</v>
       </c>
       <c r="C40" s="3">
-        <v>896</v>
+        <v>8912</v>
       </c>
       <c r="D40" s="4">
-        <v>0.7006311393865093</v>
+        <v>0.342291527625399</v>
       </c>
       <c r="E40" s="4">
-        <v>86.02794411177645</v>
+        <v>0.5189620758483035</v>
       </c>
       <c r="F40" s="4">
-        <v>0.1215221826510248</v>
+        <v>0.1810874886138379</v>
       </c>
       <c r="G40" s="4">
-        <v>67.86427145708583</v>
+        <v>0.7964071856287426</v>
       </c>
       <c r="H40" s="4">
-        <v>0.1465370426140668</v>
+        <v>0.2622043311584981</v>
       </c>
       <c r="I40" s="4">
-        <v>86.82634730538922</v>
+        <v>0.9640718562874251</v>
       </c>
       <c r="J40" s="4">
-        <v>0.1169328741080595</v>
+        <v>0.2494465465077961</v>
       </c>
       <c r="K40" s="4">
-        <v>84.23153692614771</v>
+        <v>0.9820359281437127</v>
       </c>
       <c r="L40" s="4">
-        <v>81.23752495009981</v>
+        <v>0.8153692614770459</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2112,37 +2112,37 @@
         <v>51</v>
       </c>
       <c r="B41" s="2">
-        <v>232.85</v>
+        <v>240.37</v>
       </c>
       <c r="C41" s="3">
-        <v>858</v>
+        <v>832</v>
       </c>
       <c r="D41" s="4">
-        <v>0.5296058010611004</v>
+        <v>0.516912551515182</v>
       </c>
       <c r="E41" s="4">
-        <v>75.0499001996008</v>
+        <v>0.7405189620758483</v>
       </c>
       <c r="F41" s="4">
-        <v>0.1095342741067928</v>
+        <v>0.1144480257205128</v>
       </c>
       <c r="G41" s="4">
-        <v>65.6686626746507</v>
+        <v>0.6646706586826348</v>
       </c>
       <c r="H41" s="4">
-        <v>0.2327833512209214</v>
+        <v>0.2374653542736849</v>
       </c>
       <c r="I41" s="4">
-        <v>95.20958083832335</v>
+        <v>0.9560878243512974</v>
       </c>
       <c r="J41" s="4">
-        <v>0.1334379220238525</v>
+        <v>0.133464451990652</v>
       </c>
       <c r="K41" s="4">
-        <v>89.02195608782435</v>
+        <v>0.8942115768463075</v>
       </c>
       <c r="L41" s="4">
-        <v>81.2375249500998</v>
+        <v>0.813872255489022</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2150,37 +2150,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="2">
-        <v>33.26</v>
+        <v>700.87</v>
       </c>
       <c r="C42" s="3">
-        <v>6013</v>
+        <v>285</v>
       </c>
       <c r="D42" s="4">
-        <v>0.537899804007602</v>
+        <v>0.4049372343314929</v>
       </c>
       <c r="E42" s="4">
-        <v>76.24750499001996</v>
+        <v>0.6067864271457085</v>
       </c>
       <c r="F42" s="4">
-        <v>0.1930346023165137</v>
+        <v>0.4528093536078809</v>
       </c>
       <c r="G42" s="4">
-        <v>80.83832335329342</v>
+        <v>0.9720558882235529</v>
       </c>
       <c r="H42" s="4">
-        <v>0.1345496592018448</v>
+        <v>0.170493554250276</v>
       </c>
       <c r="I42" s="4">
-        <v>84.43113772455089</v>
+        <v>0.9161676646706587</v>
       </c>
       <c r="J42" s="4">
-        <v>0.1100336352781849</v>
+        <v>0.08823323980435761</v>
       </c>
       <c r="K42" s="4">
-        <v>81.2375249500998</v>
+        <v>0.7385229540918163</v>
       </c>
       <c r="L42" s="4">
-        <v>80.68862275449102</v>
+        <v>0.8083832335329342</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2188,37 +2188,37 @@
         <v>53</v>
       </c>
       <c r="B43" s="2">
-        <v>688</v>
+        <v>32.22</v>
       </c>
       <c r="C43" s="3">
-        <v>290</v>
+        <v>6207</v>
       </c>
       <c r="D43" s="4">
-        <v>0.4099858055986899</v>
+        <v>0.5356832904805903</v>
       </c>
       <c r="E43" s="4">
-        <v>61.47704590818363</v>
+        <v>0.7584830339321357</v>
       </c>
       <c r="F43" s="4">
-        <v>0.4482085325511706</v>
+        <v>0.196700136811169</v>
       </c>
       <c r="G43" s="4">
-        <v>97.2055888223553</v>
+        <v>0.8103792415169661</v>
       </c>
       <c r="H43" s="4">
-        <v>0.1663611541405418</v>
+        <v>0.1368941525053887</v>
       </c>
       <c r="I43" s="4">
-        <v>91.41716566866268</v>
+        <v>0.844311377245509</v>
       </c>
       <c r="J43" s="4">
-        <v>0.08703904269695778</v>
+        <v>0.1116329432712579</v>
       </c>
       <c r="K43" s="4">
-        <v>72.45508982035928</v>
+        <v>0.8183632734530939</v>
       </c>
       <c r="L43" s="4">
-        <v>80.63872255489022</v>
+        <v>0.8078842315369261</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2226,37 +2226,37 @@
         <v>54</v>
       </c>
       <c r="B44" s="2">
-        <v>108.7</v>
+        <v>108.55</v>
       </c>
       <c r="C44" s="3">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="D44" s="4">
-        <v>0.8914584123613127</v>
+        <v>0.8577344122631878</v>
       </c>
       <c r="E44" s="4">
-        <v>94.41117764471058</v>
+        <v>0.9301397205588822</v>
       </c>
       <c r="F44" s="4">
-        <v>0.212336445889346</v>
+        <v>0.213991615928061</v>
       </c>
       <c r="G44" s="4">
-        <v>84.03193612774452</v>
+        <v>0.8483033932135728</v>
       </c>
       <c r="H44" s="4">
-        <v>0.0909888951973548</v>
+        <v>0.09021435817074179</v>
       </c>
       <c r="I44" s="4">
-        <v>71.45708582834331</v>
+        <v>0.7065868263473054</v>
       </c>
       <c r="J44" s="4">
-        <v>0.08241055831997766</v>
+        <v>0.08372688174894084</v>
       </c>
       <c r="K44" s="4">
-        <v>71.05788423153693</v>
+        <v>0.7145708582834331</v>
       </c>
       <c r="L44" s="4">
-        <v>80.23952095808383</v>
+        <v>0.7999001996007984</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2264,37 +2264,37 @@
         <v>55</v>
       </c>
       <c r="B45" s="2">
-        <v>98.98</v>
+        <v>97.8</v>
       </c>
       <c r="C45" s="3">
-        <v>2020</v>
+        <v>2044</v>
       </c>
       <c r="D45" s="4">
-        <v>1.3395315554728</v>
+        <v>1.29473674960014</v>
       </c>
       <c r="E45" s="4">
-        <v>98.20359281437126</v>
+        <v>0.9780439121756487</v>
       </c>
       <c r="F45" s="4">
-        <v>0.1303964248323656</v>
+        <v>0.1289524302930858</v>
       </c>
       <c r="G45" s="4">
-        <v>69.86027944111777</v>
+        <v>0.6926147704590818</v>
       </c>
       <c r="H45" s="4">
-        <v>0.3874481652522972</v>
+        <v>0.3917568839031721</v>
       </c>
       <c r="I45" s="4">
-        <v>98.60279441117764</v>
+        <v>0.9880239520958084</v>
       </c>
       <c r="J45" s="4">
-        <v>0.04842782789969199</v>
+        <v>0.04790781773744573</v>
       </c>
       <c r="K45" s="4">
-        <v>52.09580838323353</v>
+        <v>0.5169660678642715</v>
       </c>
       <c r="L45" s="4">
-        <v>79.69061876247505</v>
+        <v>0.7939121756487026</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2302,37 +2302,37 @@
         <v>56</v>
       </c>
       <c r="B46" s="2">
-        <v>65.77</v>
+        <v>65.86</v>
       </c>
       <c r="C46" s="3">
-        <v>3040</v>
+        <v>3036</v>
       </c>
       <c r="D46" s="4">
-        <v>1.106402364574619</v>
+        <v>1.093181936015561</v>
       </c>
       <c r="E46" s="4">
-        <v>95.80838323353294</v>
+        <v>0.9580838323353293</v>
       </c>
       <c r="F46" s="4">
-        <v>0.2072711729908907</v>
+        <v>0.2095757249300199</v>
       </c>
       <c r="G46" s="4">
-        <v>83.23353293413173</v>
+        <v>0.8343313373253493</v>
       </c>
       <c r="H46" s="4">
-        <v>0.2153232091545814</v>
+        <v>0.2148594151536294</v>
       </c>
       <c r="I46" s="4">
-        <v>94.21157684630738</v>
+        <v>0.940119760479042</v>
       </c>
       <c r="J46" s="4">
-        <v>0.03596962605882324</v>
+        <v>0.03606790603331212</v>
       </c>
       <c r="K46" s="4">
-        <v>43.7125748502994</v>
+        <v>0.4411177644710579</v>
       </c>
       <c r="L46" s="4">
-        <v>79.24151696606786</v>
+        <v>0.7934131736526946</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2340,37 +2340,37 @@
         <v>57</v>
       </c>
       <c r="B47" s="2">
-        <v>57.4</v>
+        <v>60.08</v>
       </c>
       <c r="C47" s="3">
-        <v>3484</v>
+        <v>3328</v>
       </c>
       <c r="D47" s="4">
-        <v>0.3215458503622771</v>
+        <v>0.3845951800213133</v>
       </c>
       <c r="E47" s="4">
-        <v>49.30139720558882</v>
+        <v>0.592814371257485</v>
       </c>
       <c r="F47" s="4">
-        <v>0.2519005522694571</v>
+        <v>0.173433483869486</v>
       </c>
       <c r="G47" s="4">
-        <v>88.62275449101796</v>
+        <v>0.7864271457085829</v>
       </c>
       <c r="H47" s="4">
-        <v>0.1591509420567052</v>
+        <v>0.1439836587523126</v>
       </c>
       <c r="I47" s="4">
-        <v>89.82035928143712</v>
+        <v>0.8622754491017964</v>
       </c>
       <c r="J47" s="4">
-        <v>0.1303044853489008</v>
+        <v>0.1518679162465975</v>
       </c>
       <c r="K47" s="4">
-        <v>88.62275449101796</v>
+        <v>0.9261477045908184</v>
       </c>
       <c r="L47" s="4">
-        <v>79.09181636726547</v>
+        <v>0.7919161676646707</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2378,37 +2378,37 @@
         <v>58</v>
       </c>
       <c r="B48" s="2">
-        <v>59.27</v>
+        <v>395.77</v>
       </c>
       <c r="C48" s="3">
-        <v>3374</v>
+        <v>505</v>
       </c>
       <c r="D48" s="4">
-        <v>0.3811177219672227</v>
+        <v>0.8188518923315578</v>
       </c>
       <c r="E48" s="4">
-        <v>58.28343313373254</v>
+        <v>0.9141716566866268</v>
       </c>
       <c r="F48" s="4">
-        <v>0.168511195012502</v>
+        <v>0.09482454987373941</v>
       </c>
       <c r="G48" s="4">
-        <v>77.44510978043913</v>
+        <v>0.6147704590818364</v>
       </c>
       <c r="H48" s="4">
-        <v>0.1470910557116306</v>
+        <v>0.1209355025174954</v>
       </c>
       <c r="I48" s="4">
-        <v>87.22554890219561</v>
+        <v>0.8063872255489022</v>
       </c>
       <c r="J48" s="4">
-        <v>0.1519744361491843</v>
+        <v>0.1145917814864411</v>
       </c>
       <c r="K48" s="4">
-        <v>92.41516966067864</v>
+        <v>0.8283433133732535</v>
       </c>
       <c r="L48" s="4">
-        <v>78.84231536926148</v>
+        <v>0.7909181636726548</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2416,37 +2416,37 @@
         <v>59</v>
       </c>
       <c r="B49" s="2">
-        <v>200.88</v>
+        <v>57.3</v>
       </c>
       <c r="C49" s="3">
-        <v>995</v>
+        <v>3490</v>
       </c>
       <c r="D49" s="4">
-        <v>0.5261384355372477</v>
+        <v>0.3167623778710958</v>
       </c>
       <c r="E49" s="4">
-        <v>74.45109780439122</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="F49" s="4">
-        <v>0.07697479219339656</v>
+        <v>0.2509051395898425</v>
       </c>
       <c r="G49" s="4">
-        <v>57.28542914171657</v>
+        <v>0.8842315369261478</v>
       </c>
       <c r="H49" s="4">
-        <v>0.1644387953668897</v>
+        <v>0.1593130118355779</v>
       </c>
       <c r="I49" s="4">
-        <v>90.61876247504991</v>
+        <v>0.8962075848303394</v>
       </c>
       <c r="J49" s="4">
-        <v>0.1463468416107926</v>
+        <v>0.13007399893161</v>
       </c>
       <c r="K49" s="4">
-        <v>92.01596806387225</v>
+        <v>0.8862275449101795</v>
       </c>
       <c r="L49" s="4">
-        <v>78.59281437125749</v>
+        <v>0.7894211576846307</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2454,37 +2454,37 @@
         <v>60</v>
       </c>
       <c r="B50" s="2">
-        <v>387.05</v>
+        <v>201.57</v>
       </c>
       <c r="C50" s="3">
-        <v>516</v>
+        <v>992</v>
       </c>
       <c r="D50" s="4">
-        <v>0.8416826080869513</v>
+        <v>0.5145498380326499</v>
       </c>
       <c r="E50" s="4">
-        <v>92.41516966067864</v>
+        <v>0.7385229540918163</v>
       </c>
       <c r="F50" s="4">
-        <v>0.0950436564027124</v>
+        <v>0.07668716521929299</v>
       </c>
       <c r="G50" s="4">
-        <v>61.07784431137725</v>
+        <v>0.5708582834331337</v>
       </c>
       <c r="H50" s="4">
-        <v>0.1178185980777999</v>
+        <v>0.1644965655457844</v>
       </c>
       <c r="I50" s="4">
-        <v>79.24151696606786</v>
+        <v>0.9121756487025948</v>
       </c>
       <c r="J50" s="4">
-        <v>0.1107631073481377</v>
+        <v>0.1451279340662291</v>
       </c>
       <c r="K50" s="4">
-        <v>81.43712574850299</v>
+        <v>0.9161676646706587</v>
       </c>
       <c r="L50" s="4">
-        <v>78.54291417165669</v>
+        <v>0.7844311377245509</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2492,37 +2492,37 @@
         <v>61</v>
       </c>
       <c r="B51" s="2">
-        <v>25.14</v>
+        <v>206.3</v>
       </c>
       <c r="C51" s="3">
-        <v>7955</v>
+        <v>969</v>
       </c>
       <c r="D51" s="4">
-        <v>0.6447229628232748</v>
+        <v>0.613699024421489</v>
       </c>
       <c r="E51" s="4">
-        <v>82.83433133732535</v>
+        <v>0.8103792415169661</v>
       </c>
       <c r="F51" s="4">
-        <v>0.08433401284586406</v>
+        <v>0.2957772379069119</v>
       </c>
       <c r="G51" s="4">
-        <v>59.2814371257485</v>
+        <v>0.9201596806387226</v>
       </c>
       <c r="H51" s="4">
-        <v>0.21351114331929</v>
+        <v>0.101813559253521</v>
       </c>
       <c r="I51" s="4">
-        <v>93.812375249501</v>
+        <v>0.7504990019960079</v>
       </c>
       <c r="J51" s="4">
-        <v>0.09982044135918279</v>
+        <v>0.06905302430535289</v>
       </c>
       <c r="K51" s="4">
-        <v>77.64471057884232</v>
+        <v>0.6526946107784432</v>
       </c>
       <c r="L51" s="4">
-        <v>78.39321357285429</v>
+        <v>0.7834331337325349</v>
       </c>
     </row>
   </sheetData>
